--- a/SIAL_docs/SIAL_data_dictionary.xlsx
+++ b/SIAL_docs/SIAL_data_dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="14880" windowHeight="7908"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="14880" windowHeight="7908" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="SIAL contents" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="523">
   <si>
     <t>Variable name</t>
   </si>
@@ -1764,6 +1764,9 @@
   <si>
     <t xml:space="preserve">same as source
 </t>
+  </si>
+  <si>
+    <t>Mental health cost</t>
   </si>
 </sst>
 </file>
@@ -7144,7 +7147,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> The method for deriving costs was provided by the Ministry of Health.  MOH noted the following caveats:</a:t>
+            <a:t> The method for deriving mental health costs was provided by the Ministry of Health.  MOH noted the following caveats:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13430,8 +13433,8 @@
   </sheetPr>
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17899,8 +17902,8 @@
   </sheetPr>
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18129,12 +18132,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="33" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>69</v>
+        <v>522</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>349</v>

--- a/SIAL_docs/SIAL_data_dictionary.xlsx
+++ b/SIAL_docs/SIAL_data_dictionary.xlsx
@@ -7040,8 +7040,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7050,8 +7050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="6092188"/>
-          <a:ext cx="9420225" cy="5490212"/>
+          <a:off x="647700" y="6076948"/>
+          <a:ext cx="9420225" cy="7433312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7375,9 +7375,7 @@
             </a:rPr>
             <a:t>See source data dictionary. As this is a reformatted table any underlying quality issues with the source data will remain in this table.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
+          <a:br>
             <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -7387,21 +7385,240 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Uncertainty of accuracy of information</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Due to out-of-date business rules, MOH know that a large number of laboratory claims are included in the data that shouldn't be. Conversely they know that a large number of claims are not included in the data that should be. For these reasons, MOH are uncertain of the accuracy of the overall volumes and cost. </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bulk funded claims affect data quality</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The funding of laboratory claims has changed over time from 'fee for service' (FFS) payment to bulk funding. Where the laboratory was bulk funded, the amount paid variable will be blank. In addition, the estimated amount paid variable will include an estimated amount paid for service providers that were bulk funded. MOH recommend that you use the 'estimated amount paid' variable instead of the amount paid variable. </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>It is important to note that the estimated amount is based on a 2010 value and requires updating. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>High level details about some of the quality issues include:</a:t>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Other quality notes</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17902,7 +18119,7 @@
   </sheetPr>
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>

--- a/SIAL_docs/SIAL_data_dictionary.xlsx
+++ b/SIAL_docs/SIAL_data_dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="14880" windowHeight="7908" firstSheet="16" activeTab="21"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="14880" windowHeight="7908" firstSheet="21" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="SIAL contents" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="522">
   <si>
     <t>Variable name</t>
   </si>
@@ -810,25 +810,7 @@
     <t>SIAL_IRD_income_events</t>
   </si>
   <si>
-    <t>income_cal_yr</t>
-  </si>
-  <si>
-    <t>INC = income</t>
-  </si>
-  <si>
-    <t>inc_cal_yr_income_source_code</t>
-  </si>
-  <si>
-    <t>income_cal_yr_year_nbr</t>
-  </si>
-  <si>
     <t>Monthly event cost</t>
-  </si>
-  <si>
-    <t>income_cal_yr_mth_01_amt to income_cal_yr_mth_12_amt</t>
-  </si>
-  <si>
-    <t>Monthly event revenue</t>
   </si>
   <si>
     <t xml:space="preserve">IRD = Inland Revenue </t>
@@ -1126,22 +1108,663 @@
     <t>moe_school_decile_pricing</t>
   </si>
   <si>
-    <t xml:space="preserve">cost </t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenue </t>
-  </si>
-  <si>
-    <t>IDI_clean.data.income_cal_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costs:                                                                                                            BEN = Benefit payments
+    <t>MIX</t>
+  </si>
+  <si>
+    <t>HRM</t>
+  </si>
+  <si>
+    <t>SLF</t>
+  </si>
+  <si>
+    <t>Source agency - MOH, ACC, or MSD</t>
+  </si>
+  <si>
+    <t>Same as source table</t>
+  </si>
+  <si>
+    <t>Source agency</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>Source agency - MOH, DIA</t>
+  </si>
+  <si>
+    <t>moh_clean.mortality</t>
+  </si>
+  <si>
+    <t>moh_mor_icd_d_code</t>
+  </si>
+  <si>
+    <t>ICD code</t>
+  </si>
+  <si>
+    <t>Age at death</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Derived from dob and dod variables</t>
+  </si>
+  <si>
+    <t>moh_mhd_activity_type_code</t>
+  </si>
+  <si>
+    <t>moh_mhd_activity_setting_code</t>
+  </si>
+  <si>
+    <t>Activity type</t>
+  </si>
+  <si>
+    <t>Activity setting</t>
+  </si>
+  <si>
+    <t>moh_mhd_activity_unit_count_nbr   price.unit_price</t>
+  </si>
+  <si>
+    <t>moh_clean.primhd moh_primhd_pu_pricing</t>
+  </si>
+  <si>
+    <t>ENR = Enrollments</t>
+  </si>
+  <si>
+    <t>TER = Tertiary</t>
+  </si>
+  <si>
+    <t>Subsector</t>
+  </si>
+  <si>
+    <t>University Polytechnic Wananga Private Training Establishments</t>
+  </si>
+  <si>
+    <t>moe_ter_pricing</t>
+  </si>
+  <si>
+    <t>ter_funding_cost</t>
+  </si>
+  <si>
+    <t>Provider code</t>
+  </si>
+  <si>
+    <t>moe_enr_provider_code</t>
+  </si>
+  <si>
+    <t>Qualification code</t>
+  </si>
+  <si>
+    <t>moe_enr_qual_code</t>
+  </si>
+  <si>
+    <t>subsector</t>
+  </si>
+  <si>
+    <t>IDI_Clean.moe_clean.enrollemt</t>
+  </si>
+  <si>
+    <t>moe_enr_prog_start_date</t>
+  </si>
+  <si>
+    <t>moe_enr_prog_end_date</t>
+  </si>
+  <si>
+    <t>clean_read_CYF.cyf_cec_client_event_cost</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>B4 School Checks</t>
+  </si>
+  <si>
+    <t>Cancer registrations</t>
+  </si>
+  <si>
+    <t>Chronic condition/significant health event cohort</t>
+  </si>
+  <si>
+    <t>Mixed data source table</t>
+  </si>
+  <si>
+    <t>National Immunisation Register (NIR)</t>
+  </si>
+  <si>
+    <t>Programme for the Integration of Mental Health Data (PRIMHD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child, Youth and Family </t>
+  </si>
+  <si>
+    <t>Child, Youth and Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefit dynamics </t>
+  </si>
+  <si>
+    <t>ACC injury claims</t>
+  </si>
+  <si>
+    <t>Tertiary education</t>
+  </si>
+  <si>
+    <t>Primary and secondary schools</t>
+  </si>
+  <si>
+    <t>General Medical Services (GMS) claims</t>
+  </si>
+  <si>
+    <t>Laboratory claims</t>
+  </si>
+  <si>
+    <t>National Non-Admitted Patient Collection (NNAPAC)</t>
+  </si>
+  <si>
+    <t>Publicly funded hospital discharges – event and diagnosis/procedure information</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Court charges </t>
+  </si>
+  <si>
+    <t>Tax (Statistics NZ derived tables)</t>
+  </si>
+  <si>
+    <t>Sentencing and remand data</t>
+  </si>
+  <si>
+    <t>COR_sentence_events</t>
+  </si>
+  <si>
+    <t>SIAL_COR_sentence_events</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Ministry of Justice</t>
+  </si>
+  <si>
+    <t>Department of Corrections</t>
+  </si>
+  <si>
+    <t>Ministry of Social Development</t>
+  </si>
+  <si>
+    <t>Ministry of Education</t>
+  </si>
+  <si>
+    <t>Ministry of Health</t>
+  </si>
+  <si>
+    <t>Inland Revenue</t>
+  </si>
+  <si>
+    <t>Mixed agency data</t>
+  </si>
+  <si>
+    <t>cor_clean.ov_major_mgmt_periods</t>
+  </si>
+  <si>
+    <t>cor_mmp_period_start_date</t>
+  </si>
+  <si>
+    <t>cor_mmp_period_end_date</t>
+  </si>
+  <si>
+    <t>COR = Corrections</t>
+  </si>
+  <si>
+    <t>MMP = Major Management Periods</t>
+  </si>
+  <si>
+    <t>SAR = Sentencing and Remand</t>
+  </si>
+  <si>
+    <t>Group Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS = Community Sentenced
+PS = Prison Sentenced
+RC = Remanded in Custody
+RP = Released Prisoner management
+</t>
+  </si>
+  <si>
+    <t>IDI_Metadata.clean_read_Classifications.cor_ov_mmc_dim</t>
+  </si>
+  <si>
+    <t>group_code</t>
+  </si>
+  <si>
+    <t>MMC Code</t>
+  </si>
+  <si>
+    <t>cor_mmp_mmc_code</t>
+  </si>
+  <si>
+    <t>Direct cost</t>
+  </si>
+  <si>
+    <t>Indirect Cot</t>
+  </si>
+  <si>
+    <t>cor_mmc_pricing</t>
+  </si>
+  <si>
+    <t>direct_cost</t>
+  </si>
+  <si>
+    <t>total_cost-diret_cost</t>
+  </si>
+  <si>
+    <t>same as source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accident Compensation Corporation </t>
+  </si>
+  <si>
+    <t>New Zealand Police</t>
+  </si>
+  <si>
+    <t>POL_victim_events</t>
+  </si>
+  <si>
+    <t>SIAL_POL_victim_events</t>
+  </si>
+  <si>
+    <t>POL_offender_events</t>
+  </si>
+  <si>
+    <t>SAIL_POL_offender_events</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>POL_vitim_events</t>
+  </si>
+  <si>
+    <t>POL = Police</t>
+  </si>
+  <si>
+    <t>VIC = Victims</t>
+  </si>
+  <si>
+    <t>pol_clean.pre_count_victimisations</t>
+  </si>
+  <si>
+    <t>pol_prv_reported_date</t>
+  </si>
+  <si>
+    <t>pol_prv_offence_inv_ind</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>Offence Type</t>
+  </si>
+  <si>
+    <t>Occurrence ID</t>
+  </si>
+  <si>
+    <t>Offence ID</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Known
+Other/NA
+Stranger</t>
+  </si>
+  <si>
+    <t>Investigated
+Not investigated</t>
+  </si>
+  <si>
+    <t>Relationship to Offender</t>
+  </si>
+  <si>
+    <t>SIAL_POL_offender_events</t>
+  </si>
+  <si>
+    <t>pol_clean.pre_count_offenders</t>
+  </si>
+  <si>
+    <t>OFF = Offenders</t>
+  </si>
+  <si>
+    <t>pol_pro_proceeding_date</t>
+  </si>
+  <si>
+    <t>pol_prv_anzsoc_offence_code</t>
+  </si>
+  <si>
+    <t>pol_pro_rov_code</t>
+  </si>
+  <si>
+    <t>snz_pol_offence_uid</t>
+  </si>
+  <si>
+    <t>snz_pol_occurrence_uid</t>
+  </si>
+  <si>
+    <t>pol_pro_anzsoc_offence_code</t>
+  </si>
+  <si>
+    <t>pol_prv_rov_code</t>
+  </si>
+  <si>
+    <t>pol_pro_offence_inv_ind</t>
+  </si>
+  <si>
+    <t>Table or view</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>IDI_Clean.data.personal_detail</t>
+  </si>
+  <si>
+    <t>IDI_Sandpit.clean_read_MOE.ECEStudentParticipation2015</t>
+  </si>
+  <si>
+    <t>derived from snz_birth_year_nbr</t>
+  </si>
+  <si>
+    <t>ECE Classification ID</t>
+  </si>
+  <si>
+    <t>Hours attending ECE</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>Derived</t>
+  </si>
+  <si>
+    <t>Available in IDI</t>
+  </si>
+  <si>
+    <t>Industry training</t>
+  </si>
+  <si>
+    <t>moe_itl_start_date</t>
+  </si>
+  <si>
+    <t>moe_itl_end_date</t>
+  </si>
+  <si>
+    <t>Funding based on number of units consumed</t>
+  </si>
+  <si>
+    <t>MOE_itl_events</t>
+  </si>
+  <si>
+    <t>SIAL_MOE_itl_events</t>
+  </si>
+  <si>
+    <t>IDI_Clean.moe_clean.tec_it_learner</t>
+  </si>
+  <si>
+    <t>Start date of industry training</t>
+  </si>
+  <si>
+    <t>End date of industry training</t>
+  </si>
+  <si>
+    <t>moe_itl_fund_code</t>
+  </si>
+  <si>
+    <t>moe_itl_ito_edumis_id_code</t>
+  </si>
+  <si>
+    <t>IT = Industry Training
+MA = Modern Apprenticeships</t>
+  </si>
+  <si>
+    <t>e.g. 9999</t>
+  </si>
+  <si>
+    <t>Fund code</t>
+  </si>
+  <si>
+    <t>Industry training provider</t>
+  </si>
+  <si>
+    <t>NZQF Level</t>
+  </si>
+  <si>
+    <t>moe_itl_nqf_level_code</t>
+  </si>
+  <si>
+    <t>moe_itl_nzced_detail_text</t>
+  </si>
+  <si>
+    <t>Type of programme (NZCED)</t>
+  </si>
+  <si>
+    <t>e.g. FORESTRY STUDIES</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7</t>
+  </si>
+  <si>
+    <t>MOE_ece_events</t>
+  </si>
+  <si>
+    <t>SIAL_MOE_ece_events</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Early childhood education</t>
+  </si>
+  <si>
+    <t>True
+False
+Unknown</t>
+  </si>
+  <si>
+    <t>ECE attendance</t>
+  </si>
+  <si>
+    <t>eg 14600</t>
+  </si>
+  <si>
+    <t>ECEClassificationID
+probablyatendedschool</t>
+  </si>
+  <si>
+    <t>IDI_Sandpit.clean_read_MOE.ECEStudentParticipation2015
+IDI_Sandpit.clean_read_MOH_B4SC.moh_B4SC_2015_ECE_IND</t>
+  </si>
+  <si>
+    <t>ECEClassificationID</t>
+  </si>
+  <si>
+    <t>ECEHours</t>
+  </si>
+  <si>
+    <t>IDI_Clean.moe_clean.nsi</t>
+  </si>
+  <si>
+    <t>Reported date</t>
+  </si>
+  <si>
+    <t>Date of action / proceeding date</t>
+  </si>
+  <si>
+    <t>Housing New Zealand</t>
+  </si>
+  <si>
+    <t>SIAL_HNZ_register_events</t>
+  </si>
+  <si>
+    <t>HNZ_register_events</t>
+  </si>
+  <si>
+    <t>HNZ</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>Type of application</t>
+  </si>
+  <si>
+    <t>Exit status</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>A
+B
+C
+D</t>
+  </si>
+  <si>
+    <t>Main reason for application</t>
+  </si>
+  <si>
+    <t>HOUSED
+IN REGISTR
+OTHER EXIT</t>
+  </si>
+  <si>
+    <t>NEW APP
+TRANSFER</t>
+  </si>
+  <si>
+    <t>hnz_clean.new_applications_household
+hnz_clean.transfer_applications_household</t>
+  </si>
+  <si>
+    <t>hnz_na_date_of_application_date
+hnz_ta_application_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hnz_clean.new_applications_household
+hnz_clean.transfer_applications
+</t>
+  </si>
+  <si>
+    <t>hnz_re_exit_date</t>
+  </si>
+  <si>
+    <t>hnz_clean.register_exit</t>
+  </si>
+  <si>
+    <t>NA (derived from table membership)</t>
+  </si>
+  <si>
+    <t>hnz_re_exit_status_text</t>
+  </si>
+  <si>
+    <t>hnz_na_analysis_total_score_text
+hnz_ta_analysis_total_score_text</t>
+  </si>
+  <si>
+    <t>hnz_clean.new_applications
+hnz_clean.transfer_applications</t>
+  </si>
+  <si>
+    <t>hnz_na_main_reason_app_text
+hnz_ta_main_reason_app_text</t>
+  </si>
+  <si>
+    <t>20630 = Did not attend
+20631 = Kohanga Reo
+20632 = Kindergarten
+20633 = Playcentre
+20634 = Home based service
+20635 = The Correspondence School
+20636 = Playgroup
+20637 = Unable to establish if attended or not
+20638 = Attended , but don’t know what type or service
+61050 = Attended but only outside  New Zealand</t>
+  </si>
+  <si>
+    <t>STU = Student</t>
+  </si>
+  <si>
+    <t>INT = Interventions</t>
+  </si>
+  <si>
+    <t>ITL = Industry Training</t>
+  </si>
+  <si>
+    <t>ECE = Early Childhood Education</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as source
+</t>
+  </si>
+  <si>
+    <t>Mental health cost</t>
+  </si>
+  <si>
+    <t>IDI_clean.data.income_tax_yr</t>
+  </si>
+  <si>
+    <t>IDI_clean.data.inc_tax_yr</t>
+  </si>
+  <si>
+    <t>inc_tax_yr_income_source_code</t>
+  </si>
+  <si>
+    <t>inc_tax_yr_year_nbr</t>
+  </si>
+  <si>
+    <t>inc_tax_yr_tot_yr_amt
+inc_tax_yr_mth_01_amt..
+Inc_tax_yr_mth_12_amt</t>
+  </si>
+  <si>
+    <t>EMP = Employment
+INS = Income Support
+STS = Student support allowance
+RNT = Rent
+STL = Student loan</t>
+  </si>
+  <si>
+    <t>Type of event</t>
+  </si>
+  <si>
+    <t>Net Income
+Income Tax
+Deduction
+Advance
+SLA
+SLF
+SLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEN = Benefit payments
 CLM = ACC Weekly Compensation payments
 PEN = Pension payments
 PPL = Paid parental leave payments
 STU = Student allowance payments
-WHP = Withholding payments                                                                  Revenue:
-W&amp;S = Wages &amp; salary
+WHP = Withholding payments                                                                  
+WAS = Wages &amp; salary
 C00 = Director / shareholder income from the IR4S
 C01 = Company receiving PAYE deducted income
 C02 = Company director / shareholder receiving withholding tax deducted income
@@ -1152,621 +1775,12 @@
 S01 = Sole trader receiving PAYE deducted income
 S02 = Sole trader receiving withholding tax deducted income
 S03 = Rental income from the IR3
+SLD = Student loan deduction
+FTCb = Family tax credits on main benefit
+FTCc = Family tax credits off main benefit
+SLA = student loan lending
+SLF = student loan deductions - fees, penalities
 </t>
-  </si>
-  <si>
-    <t>MIX</t>
-  </si>
-  <si>
-    <t>HRM</t>
-  </si>
-  <si>
-    <t>SLF</t>
-  </si>
-  <si>
-    <t>Source agency - MOH, ACC, or MSD</t>
-  </si>
-  <si>
-    <t>Same as source table</t>
-  </si>
-  <si>
-    <t>Source agency</t>
-  </si>
-  <si>
-    <t>MOR</t>
-  </si>
-  <si>
-    <t>Source agency - MOH, DIA</t>
-  </si>
-  <si>
-    <t>moh_clean.mortality</t>
-  </si>
-  <si>
-    <t>moh_mor_icd_d_code</t>
-  </si>
-  <si>
-    <t>ICD code</t>
-  </si>
-  <si>
-    <t>Age at death</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>Derived from dob and dod variables</t>
-  </si>
-  <si>
-    <t>moh_mhd_activity_type_code</t>
-  </si>
-  <si>
-    <t>moh_mhd_activity_setting_code</t>
-  </si>
-  <si>
-    <t>Activity type</t>
-  </si>
-  <si>
-    <t>Activity setting</t>
-  </si>
-  <si>
-    <t>moh_mhd_activity_unit_count_nbr   price.unit_price</t>
-  </si>
-  <si>
-    <t>moh_clean.primhd moh_primhd_pu_pricing</t>
-  </si>
-  <si>
-    <t>ENR = Enrollments</t>
-  </si>
-  <si>
-    <t>TER = Tertiary</t>
-  </si>
-  <si>
-    <t>Subsector</t>
-  </si>
-  <si>
-    <t>University Polytechnic Wananga Private Training Establishments</t>
-  </si>
-  <si>
-    <t>moe_ter_pricing</t>
-  </si>
-  <si>
-    <t>ter_funding_cost</t>
-  </si>
-  <si>
-    <t>Provider code</t>
-  </si>
-  <si>
-    <t>moe_enr_provider_code</t>
-  </si>
-  <si>
-    <t>Qualification code</t>
-  </si>
-  <si>
-    <t>moe_enr_qual_code</t>
-  </si>
-  <si>
-    <t>subsector</t>
-  </si>
-  <si>
-    <t>IDI_Clean.moe_clean.enrollemt</t>
-  </si>
-  <si>
-    <t>moe_enr_prog_start_date</t>
-  </si>
-  <si>
-    <t>moe_enr_prog_end_date</t>
-  </si>
-  <si>
-    <t>clean_read_CYF.cyf_cec_client_event_cost</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>B4 School Checks</t>
-  </si>
-  <si>
-    <t>Cancer registrations</t>
-  </si>
-  <si>
-    <t>Chronic condition/significant health event cohort</t>
-  </si>
-  <si>
-    <t>Mixed data source table</t>
-  </si>
-  <si>
-    <t>National Immunisation Register (NIR)</t>
-  </si>
-  <si>
-    <t>Programme for the Integration of Mental Health Data (PRIMHD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child, Youth and Family </t>
-  </si>
-  <si>
-    <t>Child, Youth and Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benefit dynamics </t>
-  </si>
-  <si>
-    <t>ACC injury claims</t>
-  </si>
-  <si>
-    <t>Tertiary education</t>
-  </si>
-  <si>
-    <t>Primary and secondary schools</t>
-  </si>
-  <si>
-    <t>General Medical Services (GMS) claims</t>
-  </si>
-  <si>
-    <t>Laboratory claims</t>
-  </si>
-  <si>
-    <t>National Non-Admitted Patient Collection (NNAPAC)</t>
-  </si>
-  <si>
-    <t>Publicly funded hospital discharges – event and diagnosis/procedure information</t>
-  </si>
-  <si>
-    <t>Pharmaceuticals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Court charges </t>
-  </si>
-  <si>
-    <t>Tax (Statistics NZ derived tables)</t>
-  </si>
-  <si>
-    <t>Sentencing and remand data</t>
-  </si>
-  <si>
-    <t>COR_sentence_events</t>
-  </si>
-  <si>
-    <t>SIAL_COR_sentence_events</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>Ministry of Justice</t>
-  </si>
-  <si>
-    <t>Department of Corrections</t>
-  </si>
-  <si>
-    <t>Ministry of Social Development</t>
-  </si>
-  <si>
-    <t>Ministry of Education</t>
-  </si>
-  <si>
-    <t>Ministry of Health</t>
-  </si>
-  <si>
-    <t>Inland Revenue</t>
-  </si>
-  <si>
-    <t>Mixed agency data</t>
-  </si>
-  <si>
-    <t>cor_clean.ov_major_mgmt_periods</t>
-  </si>
-  <si>
-    <t>cor_mmp_period_start_date</t>
-  </si>
-  <si>
-    <t>cor_mmp_period_end_date</t>
-  </si>
-  <si>
-    <t>COR = Corrections</t>
-  </si>
-  <si>
-    <t>MMP = Major Management Periods</t>
-  </si>
-  <si>
-    <t>SAR = Sentencing and Remand</t>
-  </si>
-  <si>
-    <t>Group Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS = Community Sentenced
-PS = Prison Sentenced
-RC = Remanded in Custody
-RP = Released Prisoner management
-</t>
-  </si>
-  <si>
-    <t>IDI_Metadata.clean_read_Classifications.cor_ov_mmc_dim</t>
-  </si>
-  <si>
-    <t>group_code</t>
-  </si>
-  <si>
-    <t>MMC Code</t>
-  </si>
-  <si>
-    <t>cor_mmp_mmc_code</t>
-  </si>
-  <si>
-    <t>Direct cost</t>
-  </si>
-  <si>
-    <t>Indirect Cot</t>
-  </si>
-  <si>
-    <t>cor_mmc_pricing</t>
-  </si>
-  <si>
-    <t>direct_cost</t>
-  </si>
-  <si>
-    <t>total_cost-diret_cost</t>
-  </si>
-  <si>
-    <t>same as source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accident Compensation Corporation </t>
-  </si>
-  <si>
-    <t>New Zealand Police</t>
-  </si>
-  <si>
-    <t>POL_victim_events</t>
-  </si>
-  <si>
-    <t>SIAL_POL_victim_events</t>
-  </si>
-  <si>
-    <t>POL_offender_events</t>
-  </si>
-  <si>
-    <t>SAIL_POL_offender_events</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>POL_vitim_events</t>
-  </si>
-  <si>
-    <t>POL = Police</t>
-  </si>
-  <si>
-    <t>VIC = Victims</t>
-  </si>
-  <si>
-    <t>pol_clean.pre_count_victimisations</t>
-  </si>
-  <si>
-    <t>pol_prv_reported_date</t>
-  </si>
-  <si>
-    <t>pol_prv_offence_inv_ind</t>
-  </si>
-  <si>
-    <t>Investigation</t>
-  </si>
-  <si>
-    <t>Offence Type</t>
-  </si>
-  <si>
-    <t>Occurrence ID</t>
-  </si>
-  <si>
-    <t>Offence ID</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>Known
-Other/NA
-Stranger</t>
-  </si>
-  <si>
-    <t>Investigated
-Not investigated</t>
-  </si>
-  <si>
-    <t>Relationship to Offender</t>
-  </si>
-  <si>
-    <t>SIAL_POL_offender_events</t>
-  </si>
-  <si>
-    <t>pol_clean.pre_count_offenders</t>
-  </si>
-  <si>
-    <t>OFF = Offenders</t>
-  </si>
-  <si>
-    <t>pol_pro_proceeding_date</t>
-  </si>
-  <si>
-    <t>pol_prv_anzsoc_offence_code</t>
-  </si>
-  <si>
-    <t>pol_pro_rov_code</t>
-  </si>
-  <si>
-    <t>snz_pol_offence_uid</t>
-  </si>
-  <si>
-    <t>snz_pol_occurrence_uid</t>
-  </si>
-  <si>
-    <t>pol_pro_anzsoc_offence_code</t>
-  </si>
-  <si>
-    <t>pol_prv_rov_code</t>
-  </si>
-  <si>
-    <t>pol_pro_offence_inv_ind</t>
-  </si>
-  <si>
-    <t>Table or view</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>IDI_Clean.data.personal_detail</t>
-  </si>
-  <si>
-    <t>IDI_Sandpit.clean_read_MOE.ECEStudentParticipation2015</t>
-  </si>
-  <si>
-    <t>derived from snz_birth_year_nbr</t>
-  </si>
-  <si>
-    <t>ECE Classification ID</t>
-  </si>
-  <si>
-    <t>Hours attending ECE</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Not available</t>
-  </si>
-  <si>
-    <t>Derived</t>
-  </si>
-  <si>
-    <t>Available in IDI</t>
-  </si>
-  <si>
-    <t>Industry training</t>
-  </si>
-  <si>
-    <t>moe_itl_start_date</t>
-  </si>
-  <si>
-    <t>moe_itl_end_date</t>
-  </si>
-  <si>
-    <t>Funding based on number of units consumed</t>
-  </si>
-  <si>
-    <t>MOE_itl_events</t>
-  </si>
-  <si>
-    <t>SIAL_MOE_itl_events</t>
-  </si>
-  <si>
-    <t>IDI_Clean.moe_clean.tec_it_learner</t>
-  </si>
-  <si>
-    <t>Start date of industry training</t>
-  </si>
-  <si>
-    <t>End date of industry training</t>
-  </si>
-  <si>
-    <t>moe_itl_fund_code</t>
-  </si>
-  <si>
-    <t>moe_itl_ito_edumis_id_code</t>
-  </si>
-  <si>
-    <t>IT = Industry Training
-MA = Modern Apprenticeships</t>
-  </si>
-  <si>
-    <t>e.g. 9999</t>
-  </si>
-  <si>
-    <t>Fund code</t>
-  </si>
-  <si>
-    <t>Industry training provider</t>
-  </si>
-  <si>
-    <t>NZQF Level</t>
-  </si>
-  <si>
-    <t>moe_itl_nqf_level_code</t>
-  </si>
-  <si>
-    <t>moe_itl_nzced_detail_text</t>
-  </si>
-  <si>
-    <t>Type of programme (NZCED)</t>
-  </si>
-  <si>
-    <t>e.g. FORESTRY STUDIES</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5, 6, 7</t>
-  </si>
-  <si>
-    <t>MOE_ece_events</t>
-  </si>
-  <si>
-    <t>SIAL_MOE_ece_events</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Early childhood education</t>
-  </si>
-  <si>
-    <t>True
-False
-Unknown</t>
-  </si>
-  <si>
-    <t>ECE attendance</t>
-  </si>
-  <si>
-    <t>eg 14600</t>
-  </si>
-  <si>
-    <t>ECEClassificationID
-probablyatendedschool</t>
-  </si>
-  <si>
-    <t>IDI_Sandpit.clean_read_MOE.ECEStudentParticipation2015
-IDI_Sandpit.clean_read_MOH_B4SC.moh_B4SC_2015_ECE_IND</t>
-  </si>
-  <si>
-    <t>ECEClassificationID</t>
-  </si>
-  <si>
-    <t>ECEHours</t>
-  </si>
-  <si>
-    <t>IDI_Clean.moe_clean.nsi</t>
-  </si>
-  <si>
-    <t>Reported date</t>
-  </si>
-  <si>
-    <t>Date of action / proceeding date</t>
-  </si>
-  <si>
-    <t>Housing New Zealand</t>
-  </si>
-  <si>
-    <t>SIAL_HNZ_register_events</t>
-  </si>
-  <si>
-    <t>HNZ_register_events</t>
-  </si>
-  <si>
-    <t>HNZ</t>
-  </si>
-  <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>Type of application</t>
-  </si>
-  <si>
-    <t>Exit status</t>
-  </si>
-  <si>
-    <t>Total Score</t>
-  </si>
-  <si>
-    <t>A
-B
-C
-D</t>
-  </si>
-  <si>
-    <t>Main reason for application</t>
-  </si>
-  <si>
-    <t>HOUSED
-IN REGISTR
-OTHER EXIT</t>
-  </si>
-  <si>
-    <t>NEW APP
-TRANSFER</t>
-  </si>
-  <si>
-    <t>hnz_clean.new_applications_household
-hnz_clean.transfer_applications_household</t>
-  </si>
-  <si>
-    <t>hnz_na_date_of_application_date
-hnz_ta_application_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hnz_clean.new_applications_household
-hnz_clean.transfer_applications
-</t>
-  </si>
-  <si>
-    <t>hnz_re_exit_date</t>
-  </si>
-  <si>
-    <t>hnz_clean.register_exit</t>
-  </si>
-  <si>
-    <t>NA (derived from table membership)</t>
-  </si>
-  <si>
-    <t>hnz_re_exit_status_text</t>
-  </si>
-  <si>
-    <t>hnz_na_analysis_total_score_text
-hnz_ta_analysis_total_score_text</t>
-  </si>
-  <si>
-    <t>hnz_clean.new_applications
-hnz_clean.transfer_applications</t>
-  </si>
-  <si>
-    <t>hnz_na_main_reason_app_text
-hnz_ta_main_reason_app_text</t>
-  </si>
-  <si>
-    <t>20630 = Did not attend
-20631 = Kohanga Reo
-20632 = Kindergarten
-20633 = Playcentre
-20634 = Home based service
-20635 = The Correspondence School
-20636 = Playgroup
-20637 = Unable to establish if attended or not
-20638 = Attended , but don’t know what type or service
-61050 = Attended but only outside  New Zealand</t>
-  </si>
-  <si>
-    <t>STU = Student</t>
-  </si>
-  <si>
-    <t>INT = Interventions</t>
-  </si>
-  <si>
-    <t>ITL = Industry Training</t>
-  </si>
-  <si>
-    <t>ECE = Early Childhood Education</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same as source
-</t>
-  </si>
-  <si>
-    <t>Mental health cost</t>
   </si>
 </sst>
 </file>
@@ -5113,8 +5127,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1866900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5123,8 +5137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="3962401"/>
-          <a:ext cx="9353550" cy="2695574"/>
+          <a:off x="704850" y="4366261"/>
+          <a:ext cx="9345930" cy="3703319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5282,7 +5296,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>There are many labs with zero cost. We believe this is because of the change to bulk funding and that estimated costs for an indvidual event may be available. This</a:t>
+            <a:t>The</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-NZ" sz="1100" baseline="0">
@@ -5294,17 +5308,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> needs to be confirmed with MOH</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t> IDI data only </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>contains information from community laboratories, test conducted in hospital laboratories are excluded.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr lvl="0"/>
@@ -5330,21 +5347,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> IDI data only </a:t>
-          </a:r>
-          <a:r>
+            <a:t>Due to out-of-date business rules, we know that a large number of laboratory claims are included in the data that shouldn't be. Conversely we know that a large number of claims are not included in the data that should be. For these reasons, MOH are uncertain of the accuracy of the overall volumes and cost. </a:t>
+          </a:r>
+          <a:br>
             <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -5354,8 +5359,97 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>contains information from community laboratories, test conducted in hospital laboratories are excluded.</a:t>
-          </a:r>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The funding of laboratory claims has changed over time from 'fee for service' (FFS) payment to bulk funding. Where the laboratory was bulk funded, the amount paid variable will be blank. In addition, the estimated amount paid variable will include an estimated amount paid for service providers that were bulk funded. MOH recommend that you use the 'estimated amount paid' variable instead of the amount paid variable. </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>It is important to note that the estimated amount is based on a 2010 value and requires updating. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
@@ -5383,6 +5477,86 @@
             </a:rPr>
             <a:t>In addition see source data dictionary. As this is a reformatted table any underlying quality issues with the source data will remain in this table.</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
           <a:endParaRPr lang="en-NZ">
             <a:effectLst/>
           </a:endParaRPr>
@@ -7583,15 +7757,6 @@
             </a:rPr>
             <a:t>It is important to note that the estimated amount is based on a 2010 value and requires updating. </a:t>
           </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -7794,13 +7959,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7809,8 +7974,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="3790950"/>
-          <a:ext cx="9391650" cy="2828925"/>
+          <a:off x="695325" y="4063092"/>
+          <a:ext cx="9371239" cy="13266965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8153,8 +8318,582 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Quality issues: </a:t>
-          </a:r>
+            <a:t>Quality issues:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>There is a lot to consider when looking at pharmaceuticals</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="en-NZ" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use of reimbursement cost variable and the effect of the CPSA agreement</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The main costing variable is the reimbursement cost variable. After the implementation of the Community Pharmacy Services Agreement (CPSA) in July 2012, gross reimbursement cost did not represent the gross cost to DHBs for pharmacy claims. At this point the dispensing fee variable was altered and a proportion of cost information was no longer stored in the Pharmaceutical Collection e.g. long term client payments and core services fees.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In addition to this, after the CPSA was implemented, it was required for pharmacies to claim for items where the healthcare user’s copayment covered the entire cost of dispensing the pharmaceutical (e.g. there was nothing to claim for). This mainly affects trends in dispensings where there was a low drug cost.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NHI completeness and potential exclusion of bulk and practitioner supply orders</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The IDI pharmaceutical dataset was created for person centred analyses and, before the September 2017 refresh, it didn’t contain records with no person identifier (National Health Index Number or NHI). For this reason, it is important to note that any estimates of dispensings or cost may be an underestimate. To give some perspective, NHI completeness ranges from 86.5% in 2005 to above 98% from 2013 onwards. After September 2017, all records pharmaceutical records were provided to the IDI regardless of whether the record had an NHI. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Records without an NHI could involve dispensings to multiple people so it is hard to get an estimate of the number of people not counted. This is particularly true for practitioner and bulk supply orders that have order types of 3 and 4 respectively.  A good example of this is a practitioner supply order that is used to supply contraceptives to a GP with special training in sexual health / family planning. In reality, the contraceptives were dispensed to multiple people who should all be counted but, in this example, only one record was submitted. To give some perspective, supply order expenditure was approximately $16,200,000 in 2016/17.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NHIs were excluded from bulk supply order records because they have low NHI coverage. In addition, NHIs were excluded from practitioner supply order records because the prescriber’s NHI, instead of the patient’s, is recorded. Linking both of these record types to the IDI spine have previously resulted in spurious conclusions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Coverage of Pharmaceutical Collection</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In addition of the NHI completeness issue detailed above, it is important to note that the Pharmaceutical Collection only contains a subset of dispensings. Generally speaking, the Pharmaceutical Collection only contains publicly subsidised community dispensed pharmaceuticals. The Pharmaceutical Collection does not contain:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* Prescriptions that were never dispensed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* Dispensings in a hospital setting (with the exception of oncology drugs dispensed in a hospital setting).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* Pharmaceuticals that were not publicly subsidised.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rebate information not in the IDI due to commercial sensitivity</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>It is important to note that the IDI cannot be used to calculate actual / net costs because the Pharmaceutical Collection does not include rebate information. This information is held by PHARMAC and not in the IDI due to commercial sensitivity. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Compound pharmaceuticals</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Compound pharmaceutical are items that are compounded together to form a mixture. In the Pharmaceutical Collection, each item will appear as a separate dispensing record including a header record that contains the healthcare user’s copayment and the retail subsidy. The risk is that these records could be double, or even triple counted, if they aren’t counted carefully. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This can be accounted for by performing a distinct count of the ‘dispensing event ID’ that is supposed to be available in the data after September 2017. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Credit / resubmits and batch reversals</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A credit / resubmit is when an issue has been identified with a single dispensing record and corrected “credit / resubmit” record is submitted by the claimant. A “reversal" is a whole claim batch that has been resubmitted reversed and reprocessed. Credit / resubmit records are not provided to IDI however it is important to note that the original incorrect claim is still within the IDI as the incorrect record is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>not </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>replaced with the correct one. The reason for this is there is no easy way to link the original incorrect with the corrected record.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Batch reversals are different to credit/resubmits because both the original incorrect records and the corrected records could be within the IDI. If an error is identified with a claim batch, the Ministry of Health may reverse this batch. The original claims will remain in the IDI extract if the error isn’t identified before the data is loaded into the Pharmaceutical Datamart. Further to this, if the claim is reprocessed, then both the original and updated claim could potentially be in the IDI. For this reason, some of these records will appear as a duplicates in the IDI extract. To give some perspective, credit / submits account for approximately a 3 million dollar over count within 2016/17. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Part, but not all, of these issues can be accounted for by performing a distinct count of the ‘dispensing event ID’, that is supposed to be available in the data after September 2017.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
@@ -9654,7 +10393,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>government costs and revenue into separate monthly events.  An event is defined as a cost or revenue per person, per month, per inc_cal_yr_income_source_code, per snz_employer_ird_uid.</a:t>
+            <a:t>government costs and revenue into separate monthly events.  An event is defined as a cost/revenue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>per person, per month, per source. Note that benefit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> events are captured in the MSD SIAL tables.</a:t>
           </a:r>
           <a:endParaRPr lang="en-NZ" sz="1100" b="1">
             <a:solidFill>
@@ -9706,63 +10481,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The IRD can be viewed from the government perspective and from society’s perspective. We believe having 2 separate tables from the different perspectives will create confusion and potentially double counting when used in an analysis. Consequently we have created a single table that will require further processing to isolate revenue to Government (in the form of taxes) and revenue to an individual (in the form of after tax income) </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>As part of this:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1. BEN(Benefits), CLM(Accident Compensation Claim), PEN(Pensions), </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PPL(Paid Parental Leave), STU(Student Allowance Payment) are treated as </a:t>
+            <a:t>The IRD can be viewed from the government perspective and from society’s perspective. The</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-NZ" sz="1100" baseline="0">
@@ -9774,102 +10493,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>costs. They could be loosely interpreted as flows from Government</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2. PAYE, withholding tax, withholding payments and wages and salary are treated as revenue. They could be loosely interpreted as flows from employment and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>self-employment.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>We assume that all payments amounts are gross values including tax. Consequently any revenue and cost values will need to extract the tax component or the after tax component depending on whether you are looking at Government or societal (ex Government) costs.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t> event type or subject areas can be used to determine which perspective you use.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-NZ" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -13650,8 +14275,8 @@
   </sheetPr>
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13670,10 +14295,10 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="98" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C2" s="99" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D2" s="100" t="s">
         <v>28</v>
@@ -13682,7 +14307,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G2" s="100" t="s">
         <v>31</v>
@@ -13691,15 +14316,15 @@
         <v>30</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="98" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>32</v>
@@ -13708,7 +14333,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G3" s="86">
         <v>42644</v>
@@ -13717,15 +14342,15 @@
         <v>42644</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="98" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D4" s="84" t="s">
         <v>38</v>
@@ -13734,7 +14359,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G4" s="86">
         <v>42644</v>
@@ -13743,15 +14368,15 @@
         <v>42644</v>
       </c>
       <c r="I4" s="86" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="102" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D5" s="87" t="s">
         <v>35</v>
@@ -13760,7 +14385,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G5" s="89">
         <v>42644</v>
@@ -13769,24 +14394,24 @@
         <v>42644</v>
       </c>
       <c r="I5" s="89" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="102" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G6" s="89">
         <v>42736</v>
@@ -13795,15 +14420,15 @@
         <v>42856</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="102" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>39</v>
@@ -13812,7 +14437,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G7" s="89">
         <v>42522</v>
@@ -13821,15 +14446,15 @@
         <v>42644</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="102" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D8" s="90" t="s">
         <v>41</v>
@@ -13838,7 +14463,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G8" s="89">
         <v>42522</v>
@@ -13847,15 +14472,15 @@
         <v>42644</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="102" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D9" s="90" t="s">
         <v>43</v>
@@ -13864,7 +14489,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G9" s="89">
         <v>42522</v>
@@ -13873,24 +14498,24 @@
         <v>42644</v>
       </c>
       <c r="I9" s="89" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="102" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G10" s="89">
         <v>42795</v>
@@ -13899,24 +14524,24 @@
         <v>42826</v>
       </c>
       <c r="I10" s="89" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="102" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G11" s="89">
         <v>42795</v>
@@ -13925,15 +14550,15 @@
         <v>42826</v>
       </c>
       <c r="I11" s="89" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="102" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D12" s="84" t="s">
         <v>239</v>
@@ -13942,7 +14567,7 @@
         <v>240</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G12" s="89">
         <v>42552</v>
@@ -13951,15 +14576,15 @@
         <v>42705</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="102" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D13" s="84" t="s">
         <v>97</v>
@@ -13968,7 +14593,7 @@
         <v>98</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G13" s="89">
         <v>42552</v>
@@ -13977,24 +14602,24 @@
         <v>42826</v>
       </c>
       <c r="I13" s="89" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="102" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C14" s="103" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G14" s="89">
         <v>42705</v>
@@ -14003,24 +14628,24 @@
         <v>42826</v>
       </c>
       <c r="I14" s="88" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="102" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C15" s="103" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G15" s="89">
         <v>42705</v>
@@ -14029,67 +14654,67 @@
         <v>42826</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="102" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E16" s="110" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G16" s="89">
         <v>42826</v>
       </c>
       <c r="H16" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="102" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E17" s="110" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G17" s="89">
         <v>42826</v>
       </c>
       <c r="H17" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I17" s="89" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="102" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D18" s="84" t="s">
         <v>106</v>
@@ -14098,24 +14723,24 @@
         <v>104</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G18" s="89">
         <v>42552</v>
       </c>
       <c r="H18" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I18" s="89" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="102" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C19" s="103" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D19" s="84" t="s">
         <v>107</v>
@@ -14124,24 +14749,24 @@
         <v>105</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G19" s="89">
         <v>42552</v>
       </c>
       <c r="H19" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I19" s="89" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="102" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D20" s="84" t="s">
         <v>109</v>
@@ -14150,24 +14775,24 @@
         <v>108</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G20" s="89">
         <v>42552</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="102" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C21" s="103" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D21" s="84" t="s">
         <v>111</v>
@@ -14176,7 +14801,7 @@
         <v>110</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G21" s="89">
         <v>42552</v>
@@ -14185,15 +14810,15 @@
         <v>42522</v>
       </c>
       <c r="I21" s="89" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="102" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C22" s="103" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D22" s="84" t="s">
         <v>113</v>
@@ -14202,7 +14827,7 @@
         <v>112</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G22" s="89">
         <v>42552</v>
@@ -14211,15 +14836,15 @@
         <v>42522</v>
       </c>
       <c r="I22" s="88" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="102" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D23" s="84" t="s">
         <v>115</v>
@@ -14228,24 +14853,24 @@
         <v>114</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G23" s="89">
         <v>42552</v>
       </c>
       <c r="H23" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I23" s="88" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="102" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D24" s="84" t="s">
         <v>117</v>
@@ -14254,24 +14879,24 @@
         <v>116</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G24" s="89">
         <v>42552</v>
       </c>
       <c r="H24" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I24" s="89" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="102" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C25" s="103" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D25" s="84" t="s">
         <v>119</v>
@@ -14280,24 +14905,24 @@
         <v>118</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G25" s="89">
         <v>42552</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I25" s="88" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="102" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D26" s="84" t="s">
         <v>121</v>
@@ -14306,24 +14931,24 @@
         <v>120</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G26" s="89">
         <v>42552</v>
       </c>
       <c r="H26" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I26" s="88" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="102" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D27" s="84" t="s">
         <v>123</v>
@@ -14332,7 +14957,7 @@
         <v>122</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G27" s="89">
         <v>42552</v>
@@ -14341,15 +14966,15 @@
         <v>42522</v>
       </c>
       <c r="I27" s="89" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="98" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C28" s="103" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D28" s="84" t="s">
         <v>241</v>
@@ -14358,94 +14983,94 @@
         <v>242</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G28" s="89">
         <v>42552</v>
       </c>
       <c r="H28" s="88" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I28" s="89" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="98" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C29" s="103" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E29" s="85" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F29" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G29" s="89">
         <v>42705</v>
       </c>
       <c r="H29" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I29" s="89" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="98" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D30" s="84" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G30" s="89">
         <v>42705</v>
       </c>
       <c r="H30" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I30" s="89" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="98" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F31" s="85" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G31" s="89">
         <v>42856</v>
       </c>
       <c r="H31" s="88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I31" s="89" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -14509,7 +15134,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -14520,15 +15145,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -14544,15 +15169,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14581,7 +15206,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>5</v>
@@ -14604,7 +15229,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -14621,7 +15246,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -14638,7 +15263,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -14646,13 +15271,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -14663,13 +15288,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -14680,16 +15305,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -14697,13 +15322,13 @@
         <v>54</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>53</v>
@@ -14714,50 +15339,50 @@
         <v>56</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -14811,10 +15436,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -14835,10 +15460,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14935,7 +15560,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>214</v>
@@ -14952,7 +15577,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>214</v>
@@ -14969,7 +15594,7 @@
         <v>216</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>217</v>
@@ -14986,7 +15611,7 @@
         <v>218</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>219</v>
@@ -15003,7 +15628,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>221</v>
@@ -15014,13 +15639,13 @@
     </row>
     <row r="20" spans="2:6" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>224</v>
@@ -15031,13 +15656,13 @@
     </row>
     <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>226</v>
@@ -15048,13 +15673,13 @@
     </row>
     <row r="22" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>228</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>229</v>
@@ -15071,7 +15696,7 @@
         <v>231</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>232</v>
@@ -15082,13 +15707,13 @@
     </row>
     <row r="24" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>234</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E24" s="34" t="s">
         <v>235</v>
@@ -15149,10 +15774,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -15173,10 +15798,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -15245,7 +15870,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -15262,7 +15887,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -15304,7 +15929,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>99</v>
@@ -15313,7 +15938,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -15350,7 +15975,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -15361,15 +15986,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="104" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -15390,10 +16015,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="105" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15460,7 +16085,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -15477,7 +16102,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -15488,10 +16113,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -15505,10 +16130,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -15519,16 +16144,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -15536,14 +16161,14 @@
         <v>54</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -15551,14 +16176,14 @@
         <v>56</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -15569,10 +16194,10 @@
         <v>69</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F20" s="35"/>
     </row>
@@ -15608,7 +16233,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -15619,15 +16244,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="104" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -15648,10 +16273,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15718,7 +16343,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -15735,7 +16360,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -15743,13 +16368,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>215</v>
@@ -15760,13 +16385,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>215</v>
@@ -15777,16 +16402,16 @@
         <v>68</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E17" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -15794,16 +16419,16 @@
         <v>51</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D18" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="E18" s="65" t="s">
-        <v>307</v>
-      </c>
       <c r="F18" s="66" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -15811,16 +16436,16 @@
         <v>54</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -15855,7 +16480,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -15866,15 +16491,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="104" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -15890,15 +16515,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15927,7 +16552,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>5</v>
@@ -15967,7 +16592,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -15984,7 +16609,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -15992,13 +16617,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>215</v>
@@ -16009,13 +16634,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>215</v>
@@ -16026,7 +16651,7 @@
         <v>68</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>11</v>
@@ -16035,7 +16660,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16043,16 +16668,16 @@
         <v>51</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16060,16 +16685,16 @@
         <v>54</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16077,33 +16702,33 @@
         <v>56</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D20" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="E20" s="63" t="s">
         <v>464</v>
       </c>
-      <c r="E20" s="63" t="s">
-        <v>474</v>
-      </c>
       <c r="F20" s="64" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="67" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -16141,7 +16766,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -16152,15 +16777,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="104" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16176,15 +16801,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -16213,7 +16838,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>5</v>
@@ -16253,7 +16878,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16270,7 +16895,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16278,13 +16903,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>215</v>
@@ -16295,13 +16920,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>215</v>
@@ -16312,7 +16937,7 @@
         <v>68</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D17" s="65" t="s">
         <v>11</v>
@@ -16329,16 +16954,16 @@
         <v>51</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="187.2" x14ac:dyDescent="0.25">
@@ -16346,16 +16971,16 @@
         <v>54</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16363,16 +16988,16 @@
         <v>56</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -16425,10 +17050,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -16449,10 +17074,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -16659,10 +17284,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -16683,10 +17308,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="105" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -16759,7 +17384,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -16776,7 +17401,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -16917,10 +17542,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -16941,10 +17566,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -17072,7 +17697,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>140</v>
@@ -17081,7 +17706,7 @@
         <v>144</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -17089,7 +17714,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>140</v>
@@ -17098,7 +17723,7 @@
         <v>145</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -17151,10 +17776,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -17175,10 +17800,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="105" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -17315,7 +17940,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -17324,7 +17949,7 @@
     </row>
     <row r="19" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="71" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
@@ -17682,10 +18307,10 @@
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -17706,10 +18331,10 @@
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -17918,10 +18543,10 @@
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -17942,10 +18567,10 @@
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18014,7 +18639,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -18031,7 +18656,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="150" x14ac:dyDescent="0.25">
@@ -18093,10 +18718,10 @@
         <v>69</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>163</v>
@@ -18119,8 +18744,8 @@
   </sheetPr>
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18152,10 +18777,10 @@
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -18171,15 +18796,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18307,11 +18932,11 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -18320,16 +18945,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>164</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -18354,13 +18979,13 @@
         <v>68</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>60</v>
@@ -18383,7 +19008,7 @@
   </sheetPr>
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -18416,10 +19041,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -18440,10 +19065,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -18650,10 +19275,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -18674,10 +19299,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -18746,7 +19371,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -18763,7 +19388,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -18825,7 +19450,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>182</v>
@@ -18884,10 +19509,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -18908,10 +19533,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -19073,16 +19698,16 @@
         <v>56</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>183</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -19093,7 +19718,7 @@
         <v>193</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>194</v>
@@ -19152,10 +19777,10 @@
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -19176,10 +19801,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -19320,7 +19945,7 @@
         <v>201</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -19357,8 +19982,8 @@
   </sheetPr>
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19392,10 +20017,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -19416,10 +20041,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -19447,8 +20072,8 @@
       <c r="C11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>243</v>
+      <c r="D11" s="63" t="s">
+        <v>514</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>5</v>
@@ -19471,10 +20096,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>209</v>
       </c>
@@ -19488,10 +20113,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="360" x14ac:dyDescent="0.3">
       <c r="B14" s="62" t="s">
         <v>211</v>
       </c>
@@ -19499,78 +20124,78 @@
         <v>17</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>328</v>
+        <v>514</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>245</v>
+        <v>515</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>215</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>328</v>
+        <v>513</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>246</v>
+        <v>516</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
-        <v>326</v>
+        <v>22</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>328</v>
+        <v>513</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>248</v>
+        <v>516</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="33" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>328</v>
+        <v>513</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>248</v>
+        <v>517</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>233</v>
@@ -19608,7 +20233,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -19619,15 +20244,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -19648,10 +20273,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -19701,7 +20326,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -19718,7 +20343,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -19735,7 +20360,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -19746,10 +20371,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -19763,10 +20388,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -19777,16 +20402,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -19821,7 +20446,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -19832,15 +20457,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -19861,10 +20486,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -19914,7 +20539,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -19931,7 +20556,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -19948,7 +20573,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -19959,10 +20584,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -19976,10 +20601,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -19990,13 +20615,13 @@
         <v>51</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F17" s="58" t="s">
         <v>53</v>
@@ -20007,16 +20632,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20024,16 +20649,16 @@
         <v>56</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -20089,10 +20714,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -20113,10 +20738,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="107" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -20202,7 +20827,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -20213,10 +20838,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>215</v>
@@ -20230,10 +20855,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>215</v>
@@ -20247,10 +20872,10 @@
         <v>52</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>53</v>
@@ -20264,10 +20889,10 @@
         <v>55</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>53</v>
@@ -20281,10 +20906,10 @@
         <v>57</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>58</v>
@@ -20298,10 +20923,10 @@
         <v>59</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>60</v>
@@ -20309,16 +20934,16 @@
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>60</v>
@@ -20326,7 +20951,7 @@
     </row>
     <row r="23" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="73"/>
@@ -20638,7 +21263,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -20649,15 +21274,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E4" s="111"/>
       <c r="F4" s="111"/>
@@ -20702,10 +21327,10 @@
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -20734,7 +21359,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>5</v>
@@ -20757,7 +21382,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
@@ -20774,7 +21399,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
@@ -20791,7 +21416,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="57.6" x14ac:dyDescent="0.25">
@@ -20802,10 +21427,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -20819,10 +21444,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -20833,16 +21458,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -20850,16 +21475,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>509</v>
-      </c>
       <c r="E18" s="25" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="57.6" x14ac:dyDescent="0.25">
@@ -20867,33 +21492,33 @@
         <v>56</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="118" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C20" s="119" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E20" s="120" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -20901,12 +21526,12 @@
     </row>
     <row r="22" spans="2:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="F22" s="122" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -20961,10 +21586,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -20985,10 +21610,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="105" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -21057,7 +21682,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -21074,7 +21699,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -21088,7 +21713,7 @@
         <v>62</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>215</v>
@@ -21122,10 +21747,10 @@
         <v>62</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -21142,7 +21767,7 @@
         <v>67</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -21150,16 +21775,16 @@
         <v>56</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D19" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" s="66" t="s">
         <v>261</v>
-      </c>
-      <c r="E19" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21170,10 +21795,10 @@
         <v>69</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F20" s="52" t="s">
         <v>60</v>
@@ -21181,7 +21806,7 @@
     </row>
     <row r="23" spans="2:6" s="72" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="71" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
@@ -21496,7 +22121,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -21507,15 +22132,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -21536,10 +22161,10 @@
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -21568,7 +22193,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E10" s="91" t="s">
         <v>5</v>
@@ -21585,13 +22210,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -21602,13 +22227,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -21619,13 +22244,13 @@
         <v>17</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -21636,10 +22261,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>215</v>
@@ -21653,10 +22278,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>215</v>
@@ -21667,16 +22292,16 @@
         <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -21684,16 +22309,16 @@
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -21701,13 +22326,13 @@
         <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F18" s="64" t="s">
         <v>60</v>
@@ -21715,16 +22340,16 @@
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F19" s="52" t="s">
         <v>60</v>
@@ -21736,7 +22361,7 @@
     </row>
     <row r="21" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="71" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="75"/>
@@ -22094,10 +22719,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -22118,10 +22743,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="107" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -22287,28 +22912,28 @@
         <v>56</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F19" s="58"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="31" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F20" s="58"/>
     </row>
@@ -22379,10 +23004,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -22403,10 +23028,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -22630,10 +23255,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -22654,10 +23279,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -22865,7 +23490,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -22876,15 +23501,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -22900,15 +23525,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -22937,7 +23562,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>5</v>
@@ -22960,7 +23585,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
@@ -22977,7 +23602,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -22994,7 +23619,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -23002,13 +23627,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -23019,13 +23644,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -23036,16 +23661,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -23053,13 +23678,13 @@
         <v>54</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>53</v>
@@ -23070,50 +23695,50 @@
         <v>56</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>444</v>
-      </c>
       <c r="F19" s="32" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="31" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/SIAL_docs/SIAL_data_dictionary.xlsx
+++ b/SIAL_docs/SIAL_data_dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="14880" windowHeight="7908" firstSheet="21" activeTab="26"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="14880" windowHeight="7908" tabRatio="842"/>
   </bookViews>
   <sheets>
     <sheet name="SIAL contents" sheetId="1" r:id="rId1"/>
@@ -5441,15 +5441,6 @@
             </a:rPr>
             <a:t>It is important to note that the estimated amount is based on a 2010 value and requires updating. </a:t>
           </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
@@ -7437,8 +7428,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Forensic services have not been costed due to a different funding mechanism for these.</a:t>
-          </a:r>
+            <a:t>Services</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> have been costed using mapped codes, budget and count information provided by MOH.  Using the PBFF information. This information was not intended for costing and will not reconcile to national level expenditure on mental health costs. Due to half complete data in the IDI, costing will not go back before July 2012.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -7583,6 +7597,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
           </a:br>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-NZ" sz="1100" b="1">
               <a:solidFill>
@@ -7593,8 +7618,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Uncertainty of accuracy of information</a:t>
-          </a:r>
+            <a:t>Other quality notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
@@ -7605,9 +7632,231 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. In some cases data is missing or incomplete. There are a number of reasons for this. Some examples are:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- The gradual uptake of reporting by NGOs to PRIMHD.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Regional differences in funding for older people's mental health services.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Gaps in reporting due to changes in organisation structures and systems.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Diagnosis required</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> to be submitted within 3 month of treatment which means the diagnosis is not recorded particlarly for those who receieve short term treatment</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Changes in reporting practices over time can lead to variances in the data.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- there is a lot of variation within DHBs in terms of what is submitted and the quality of the data that is submitted</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. Inconsistent or miss-use of codes, including data entry errors.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- there are a lot of non</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> specific diagnoses such as 'diagnosis deferred' or 'no specific diagnosis'</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. Organisations resubmit previously submitted data as necessary, for example to make data corrections. This means numbers can change over time.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Some</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:br>
+          <a:r>
             <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -7617,299 +7866,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Due to out-of-date business rules, MOH know that a large number of laboratory claims are included in the data that shouldn't be. Conversely they know that a large number of claims are not included in the data that should be. For these reasons, MOH are uncertain of the accuracy of the overall volumes and cost. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Bulk funded claims affect data quality</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The funding of laboratory claims has changed over time from 'fee for service' (FFS) payment to bulk funding. Where the laboratory was bulk funded, the amount paid variable will be blank. In addition, the estimated amount paid variable will include an estimated amount paid for service providers that were bulk funded. MOH recommend that you use the 'estimated amount paid' variable instead of the amount paid variable. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>It is important to note that the estimated amount is based on a 2010 value and requires updating. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Other quality notes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1. In some cases data is missing or incomplete. There are a number of reasons for this. Some examples are:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- The gradual uptake of reporting by NGOs to PRIMHD.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Regional differences in funding for older people's mental health services.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Gaps in reporting due to changes in organisation structures and systems.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2. Changes in reporting practices over time can lead to variances in the data.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3. Inconsistent or miss-use of codes, including data entry errors.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4. Organisations resubmit previously submitted data as necessary, for example to make data corrections. This means numbers can change over time.</a:t>
+            <a:t>systems set the diagnosis date to the date the data was submitted rather than the diagnosis date.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14275,8 +14232,8 @@
   </sheetPr>
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14752,7 +14709,7 @@
         <v>437</v>
       </c>
       <c r="G19" s="89">
-        <v>42552</v>
+        <v>43070</v>
       </c>
       <c r="H19" s="88" t="s">
         <v>410</v>
@@ -14856,7 +14813,7 @@
         <v>437</v>
       </c>
       <c r="G23" s="89">
-        <v>42552</v>
+        <v>43070</v>
       </c>
       <c r="H23" s="88" t="s">
         <v>410</v>
@@ -14882,7 +14839,7 @@
         <v>437</v>
       </c>
       <c r="G24" s="89">
-        <v>42552</v>
+        <v>43070</v>
       </c>
       <c r="H24" s="88" t="s">
         <v>410</v>
@@ -17252,7 +17209,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17295,7 +17252,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="50">
-        <v>42552</v>
+        <v>43070</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -18745,7 +18702,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18788,7 +18745,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="50">
-        <v>42705</v>
+        <v>43070</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -19008,8 +18965,8 @@
   </sheetPr>
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19052,7 +19009,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="50">
-        <v>42552</v>
+        <v>43070</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -19982,7 +19939,7 @@
   </sheetPr>
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/SIAL_docs/SIAL_data_dictionary.xlsx
+++ b/SIAL_docs/SIAL_data_dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="14880" windowHeight="7908" tabRatio="842"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="14880" windowHeight="7908" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="SIAL contents" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="523">
   <si>
     <t>Variable name</t>
   </si>
@@ -810,7 +810,25 @@
     <t>SIAL_IRD_income_events</t>
   </si>
   <si>
+    <t>income_cal_yr</t>
+  </si>
+  <si>
+    <t>INC = income</t>
+  </si>
+  <si>
+    <t>inc_cal_yr_income_source_code</t>
+  </si>
+  <si>
+    <t>income_cal_yr_year_nbr</t>
+  </si>
+  <si>
     <t>Monthly event cost</t>
+  </si>
+  <si>
+    <t>income_cal_yr_mth_01_amt to income_cal_yr_mth_12_amt</t>
+  </si>
+  <si>
+    <t>Monthly event revenue</t>
   </si>
   <si>
     <t xml:space="preserve">IRD = Inland Revenue </t>
@@ -1108,6 +1126,35 @@
     <t>moe_school_decile_pricing</t>
   </si>
   <si>
+    <t xml:space="preserve">cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">revenue </t>
+  </si>
+  <si>
+    <t>IDI_clean.data.income_cal_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs:                                                                                                            BEN = Benefit payments
+CLM = ACC Weekly Compensation payments
+PEN = Pension payments
+PPL = Paid parental leave payments
+STU = Student allowance payments
+WHP = Withholding payments                                                                  Revenue:
+W&amp;S = Wages &amp; salary
+C00 = Director / shareholder income from the IR4S
+C01 = Company receiving PAYE deducted income
+C02 = Company director / shareholder receiving withholding tax deducted income
+P00 = Partnership income from the IR20
+P01 = Partnership receiving PAYE deducted income
+P02 = Partnership receiving withholding tax deducted income
+S00 = Sole trader income form the IR3
+S01 = Sole trader receiving PAYE deducted income
+S02 = Sole trader receiving withholding tax deducted income
+S03 = Rental income from the IR3
+</t>
+  </si>
+  <si>
     <t>MIX</t>
   </si>
   <si>
@@ -1720,67 +1767,6 @@
   </si>
   <si>
     <t>Mental health cost</t>
-  </si>
-  <si>
-    <t>IDI_clean.data.income_tax_yr</t>
-  </si>
-  <si>
-    <t>IDI_clean.data.inc_tax_yr</t>
-  </si>
-  <si>
-    <t>inc_tax_yr_income_source_code</t>
-  </si>
-  <si>
-    <t>inc_tax_yr_year_nbr</t>
-  </si>
-  <si>
-    <t>inc_tax_yr_tot_yr_amt
-inc_tax_yr_mth_01_amt..
-Inc_tax_yr_mth_12_amt</t>
-  </si>
-  <si>
-    <t>EMP = Employment
-INS = Income Support
-STS = Student support allowance
-RNT = Rent
-STL = Student loan</t>
-  </si>
-  <si>
-    <t>Type of event</t>
-  </si>
-  <si>
-    <t>Net Income
-Income Tax
-Deduction
-Advance
-SLA
-SLF
-SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEN = Benefit payments
-CLM = ACC Weekly Compensation payments
-PEN = Pension payments
-PPL = Paid parental leave payments
-STU = Student allowance payments
-WHP = Withholding payments                                                                  
-WAS = Wages &amp; salary
-C00 = Director / shareholder income from the IR4S
-C01 = Company receiving PAYE deducted income
-C02 = Company director / shareholder receiving withholding tax deducted income
-P00 = Partnership income from the IR20
-P01 = Partnership receiving PAYE deducted income
-P02 = Partnership receiving withholding tax deducted income
-S00 = Sole trader income form the IR3
-S01 = Sole trader receiving PAYE deducted income
-S02 = Sole trader receiving withholding tax deducted income
-S03 = Rental income from the IR3
-SLD = Student loan deduction
-FTCb = Family tax credits on main benefit
-FTCc = Family tax credits off main benefit
-SLA = student loan lending
-SLF = student loan deductions - fees, penalities
-</t>
   </si>
 </sst>
 </file>
@@ -5127,8 +5113,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1866900</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5137,8 +5123,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="4366261"/>
-          <a:ext cx="9345930" cy="3703319"/>
+          <a:off x="704850" y="3962401"/>
+          <a:ext cx="9353550" cy="2695574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5296,7 +5282,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The</a:t>
+            <a:t>There are many labs with zero cost. We believe this is because of the change to bulk funding and that estimated costs for an indvidual event may be available. This</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-NZ" sz="1100" baseline="0">
@@ -5308,20 +5294,17 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> IDI data only </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>contains information from community laboratories, test conducted in hospital laboratories are excluded.</a:t>
-          </a:r>
+            <a:t> needs to be confirmed with MOH</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr lvl="0"/>
@@ -5347,9 +5330,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Due to out-of-date business rules, we know that a large number of laboratory claims are included in the data that shouldn't be. Conversely we know that a large number of claims are not included in the data that should be. For these reasons, MOH are uncertain of the accuracy of the overall volumes and cost. </a:t>
-          </a:r>
-          <a:br>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> IDI data only </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -5359,87 +5354,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The funding of laboratory claims has changed over time from 'fee for service' (FFS) payment to bulk funding. Where the laboratory was bulk funded, the amount paid variable will be blank. In addition, the estimated amount paid variable will include an estimated amount paid for service providers that were bulk funded. MOH recommend that you use the 'estimated amount paid' variable instead of the amount paid variable. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>It is important to note that the estimated amount is based on a 2010 value and requires updating. </a:t>
+            <a:t>contains information from community laboratories, test conducted in hospital laboratories are excluded.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5468,86 +5383,6 @@
             </a:rPr>
             <a:t>In addition see source data dictionary. As this is a reformatted table any underlying quality issues with the source data will remain in this table.</a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en-NZ">
             <a:effectLst/>
           </a:endParaRPr>
@@ -7205,8 +7040,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7215,8 +7050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="6076948"/>
-          <a:ext cx="9420225" cy="7433312"/>
+          <a:off x="647700" y="6092188"/>
+          <a:ext cx="9420225" cy="5490212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7428,31 +7263,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Services</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> have been costed using mapped codes, budget and count information provided by MOH.  Using the PBFF information. This information was not intended for costing and will not reconcile to national level expenditure on mental health costs. Due to half complete data in the IDI, costing will not go back before July 2012.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>Forensic services have not been costed due to a different funding mechanism for these.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -7563,7 +7375,9 @@
             </a:rPr>
             <a:t>See source data dictionary. As this is a reformatted table any underlying quality issues with the source data will remain in this table.</a:t>
           </a:r>
-          <a:br>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -7573,7 +7387,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-          </a:br>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
@@ -7584,9 +7401,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
+            <a:t>High level details about some of the quality issues include:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -7596,29 +7415,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Other quality notes</a:t>
+            <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7632,6 +7429,62 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>1. In some cases data is missing or incomplete. There are a number of reasons for this. Some examples are:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- The gradual uptake of reporting by NGOs to PRIMHD.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Regional differences in funding for older people's mental health services.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Gaps in reporting due to changes in organisation structures and systems.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
         </a:p>
@@ -7646,7 +7499,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1. In some cases data is missing or incomplete. There are a number of reasons for this. Some examples are:</a:t>
+            <a:t>2. Changes in reporting practices over time can lead to variances in the data.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7660,7 +7513,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- The gradual uptake of reporting by NGOs to PRIMHD.</a:t>
+            <a:t>3. Inconsistent or miss-use of codes, including data entry errors.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7674,199 +7527,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Regional differences in funding for older people's mental health services.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Gaps in reporting due to changes in organisation structures and systems.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Diagnosis required</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> to be submitted within 3 month of treatment which means the diagnosis is not recorded particlarly for those who receieve short term treatment</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2. Changes in reporting practices over time can lead to variances in the data.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- there is a lot of variation within DHBs in terms of what is submitted and the quality of the data that is submitted</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3. Inconsistent or miss-use of codes, including data entry errors.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- there are a lot of non</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> specific diagnoses such as 'diagnosis deferred' or 'no specific diagnosis'</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>4. Organisations resubmit previously submitted data as necessary, for example to make data corrections. This means numbers can change over time.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5. Some</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>systems set the diagnosis date to the date the data was submitted rather than the diagnosis date.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7916,13 +7577,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7931,8 +7592,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="4063092"/>
-          <a:ext cx="9371239" cy="13266965"/>
+          <a:off x="695325" y="3790950"/>
+          <a:ext cx="9391650" cy="2828925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8275,582 +7936,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Quality issues:  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>There is a lot to consider when looking at pharmaceuticals</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:endParaRPr lang="en-NZ" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Use of reimbursement cost variable and the effect of the CPSA agreement</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The main costing variable is the reimbursement cost variable. After the implementation of the Community Pharmacy Services Agreement (CPSA) in July 2012, gross reimbursement cost did not represent the gross cost to DHBs for pharmacy claims. At this point the dispensing fee variable was altered and a proportion of cost information was no longer stored in the Pharmaceutical Collection e.g. long term client payments and core services fees.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>In addition to this, after the CPSA was implemented, it was required for pharmacies to claim for items where the healthcare user’s copayment covered the entire cost of dispensing the pharmaceutical (e.g. there was nothing to claim for). This mainly affects trends in dispensings where there was a low drug cost.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>NHI completeness and potential exclusion of bulk and practitioner supply orders</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The IDI pharmaceutical dataset was created for person centred analyses and, before the September 2017 refresh, it didn’t contain records with no person identifier (National Health Index Number or NHI). For this reason, it is important to note that any estimates of dispensings or cost may be an underestimate. To give some perspective, NHI completeness ranges from 86.5% in 2005 to above 98% from 2013 onwards. After September 2017, all records pharmaceutical records were provided to the IDI regardless of whether the record had an NHI. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Records without an NHI could involve dispensings to multiple people so it is hard to get an estimate of the number of people not counted. This is particularly true for practitioner and bulk supply orders that have order types of 3 and 4 respectively.  A good example of this is a practitioner supply order that is used to supply contraceptives to a GP with special training in sexual health / family planning. In reality, the contraceptives were dispensed to multiple people who should all be counted but, in this example, only one record was submitted. To give some perspective, supply order expenditure was approximately $16,200,000 in 2016/17.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>NHIs were excluded from bulk supply order records because they have low NHI coverage. In addition, NHIs were excluded from practitioner supply order records because the prescriber’s NHI, instead of the patient’s, is recorded. Linking both of these record types to the IDI spine have previously resulted in spurious conclusions.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Coverage of Pharmaceutical Collection</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>In addition of the NHI completeness issue detailed above, it is important to note that the Pharmaceutical Collection only contains a subset of dispensings. Generally speaking, the Pharmaceutical Collection only contains publicly subsidised community dispensed pharmaceuticals. The Pharmaceutical Collection does not contain:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* Prescriptions that were never dispensed</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* Dispensings in a hospital setting (with the exception of oncology drugs dispensed in a hospital setting).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* Pharmaceuticals that were not publicly subsidised.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Rebate information not in the IDI due to commercial sensitivity</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>It is important to note that the IDI cannot be used to calculate actual / net costs because the Pharmaceutical Collection does not include rebate information. This information is held by PHARMAC and not in the IDI due to commercial sensitivity. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Compound pharmaceuticals</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Compound pharmaceutical are items that are compounded together to form a mixture. In the Pharmaceutical Collection, each item will appear as a separate dispensing record including a header record that contains the healthcare user’s copayment and the retail subsidy. The risk is that these records could be double, or even triple counted, if they aren’t counted carefully. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This can be accounted for by performing a distinct count of the ‘dispensing event ID’ that is supposed to be available in the data after September 2017. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Credit / resubmits and batch reversals</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>A credit / resubmit is when an issue has been identified with a single dispensing record and corrected “credit / resubmit” record is submitted by the claimant. A “reversal" is a whole claim batch that has been resubmitted reversed and reprocessed. Credit / resubmit records are not provided to IDI however it is important to note that the original incorrect claim is still within the IDI as the incorrect record is </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" i="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>replaced with the correct one. The reason for this is there is no easy way to link the original incorrect with the corrected record.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Batch reversals are different to credit/resubmits because both the original incorrect records and the corrected records could be within the IDI. If an error is identified with a claim batch, the Ministry of Health may reverse this batch. The original claims will remain in the IDI extract if the error isn’t identified before the data is loaded into the Pharmaceutical Datamart. Further to this, if the claim is reprocessed, then both the original and updated claim could potentially be in the IDI. For this reason, some of these records will appear as a duplicates in the IDI extract. To give some perspective, credit / submits account for approximately a 3 million dollar over count within 2016/17. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Part, but not all, of these issues can be accounted for by performing a distinct count of the ‘dispensing event ID’, that is supposed to be available in the data after September 2017.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:endParaRPr lang="en-NZ" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:t>Quality issues: </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
@@ -10350,43 +9437,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>government costs and revenue into separate monthly events.  An event is defined as a cost/revenue</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>per person, per month, per source. Note that benefit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> events are captured in the MSD SIAL tables.</a:t>
+            <a:t>government costs and revenue into separate monthly events.  An event is defined as a cost or revenue per person, per month, per inc_cal_yr_income_source_code, per snz_employer_ird_uid.</a:t>
           </a:r>
           <a:endParaRPr lang="en-NZ" sz="1100" b="1">
             <a:solidFill>
@@ -10438,7 +9489,63 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The IRD can be viewed from the government perspective and from society’s perspective. The</a:t>
+            <a:t>The IRD can be viewed from the government perspective and from society’s perspective. We believe having 2 separate tables from the different perspectives will create confusion and potentially double counting when used in an analysis. Consequently we have created a single table that will require further processing to isolate revenue to Government (in the form of taxes) and revenue to an individual (in the form of after tax income) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>As part of this:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. BEN(Benefits), CLM(Accident Compensation Claim), PEN(Pensions), </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PPL(Paid Parental Leave), STU(Student Allowance Payment) are treated as </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-NZ" sz="1100" baseline="0">
@@ -10450,8 +9557,102 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> event type or subject areas can be used to determine which perspective you use.</a:t>
-          </a:r>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>costs. They could be loosely interpreted as flows from Government</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. PAYE, withholding tax, withholding payments and wages and salary are treated as revenue. They could be loosely interpreted as flows from employment and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>self-employment.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-NZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>We assume that all payments amounts are gross values including tax. Consequently any revenue and cost values will need to extract the tax component or the after tax component depending on whether you are looking at Government or societal (ex Government) costs.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-NZ" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -14232,8 +13433,8 @@
   </sheetPr>
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14252,10 +13453,10 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="98" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C2" s="99" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D2" s="100" t="s">
         <v>28</v>
@@ -14264,7 +13465,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="G2" s="100" t="s">
         <v>31</v>
@@ -14273,15 +13474,15 @@
         <v>30</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="98" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>32</v>
@@ -14290,7 +13491,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G3" s="86">
         <v>42644</v>
@@ -14299,15 +13500,15 @@
         <v>42644</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="98" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D4" s="84" t="s">
         <v>38</v>
@@ -14316,7 +13517,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G4" s="86">
         <v>42644</v>
@@ -14325,15 +13526,15 @@
         <v>42644</v>
       </c>
       <c r="I4" s="86" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="102" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D5" s="87" t="s">
         <v>35</v>
@@ -14342,7 +13543,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G5" s="89">
         <v>42644</v>
@@ -14351,24 +13552,24 @@
         <v>42644</v>
       </c>
       <c r="I5" s="89" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="102" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G6" s="89">
         <v>42736</v>
@@ -14377,15 +13578,15 @@
         <v>42856</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="102" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>39</v>
@@ -14394,7 +13595,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="G7" s="89">
         <v>42522</v>
@@ -14403,15 +13604,15 @@
         <v>42644</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="102" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D8" s="90" t="s">
         <v>41</v>
@@ -14420,7 +13621,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G8" s="89">
         <v>42522</v>
@@ -14429,15 +13630,15 @@
         <v>42644</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="102" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D9" s="90" t="s">
         <v>43</v>
@@ -14446,7 +13647,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G9" s="89">
         <v>42522</v>
@@ -14455,24 +13656,24 @@
         <v>42644</v>
       </c>
       <c r="I9" s="89" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="102" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G10" s="89">
         <v>42795</v>
@@ -14481,24 +13682,24 @@
         <v>42826</v>
       </c>
       <c r="I10" s="89" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="102" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G11" s="89">
         <v>42795</v>
@@ -14507,15 +13708,15 @@
         <v>42826</v>
       </c>
       <c r="I11" s="89" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="102" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D12" s="84" t="s">
         <v>239</v>
@@ -14524,7 +13725,7 @@
         <v>240</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G12" s="89">
         <v>42552</v>
@@ -14533,15 +13734,15 @@
         <v>42705</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="102" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D13" s="84" t="s">
         <v>97</v>
@@ -14550,7 +13751,7 @@
         <v>98</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G13" s="89">
         <v>42552</v>
@@ -14559,24 +13760,24 @@
         <v>42826</v>
       </c>
       <c r="I13" s="89" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="102" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C14" s="103" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G14" s="89">
         <v>42705</v>
@@ -14585,24 +13786,24 @@
         <v>42826</v>
       </c>
       <c r="I14" s="88" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="102" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C15" s="103" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="G15" s="89">
         <v>42705</v>
@@ -14611,67 +13812,67 @@
         <v>42826</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="102" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E16" s="110" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G16" s="89">
         <v>42826</v>
       </c>
       <c r="H16" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="102" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E17" s="110" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G17" s="89">
         <v>42826</v>
       </c>
       <c r="H17" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I17" s="89" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="102" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D18" s="84" t="s">
         <v>106</v>
@@ -14680,24 +13881,24 @@
         <v>104</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G18" s="89">
         <v>42552</v>
       </c>
       <c r="H18" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I18" s="89" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="102" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C19" s="103" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D19" s="84" t="s">
         <v>107</v>
@@ -14706,24 +13907,24 @@
         <v>105</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G19" s="89">
-        <v>43070</v>
+        <v>42552</v>
       </c>
       <c r="H19" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I19" s="89" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="102" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D20" s="84" t="s">
         <v>109</v>
@@ -14732,24 +13933,24 @@
         <v>108</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G20" s="89">
         <v>42552</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="102" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C21" s="103" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D21" s="84" t="s">
         <v>111</v>
@@ -14758,7 +13959,7 @@
         <v>110</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G21" s="89">
         <v>42552</v>
@@ -14767,15 +13968,15 @@
         <v>42522</v>
       </c>
       <c r="I21" s="89" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="102" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C22" s="103" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D22" s="84" t="s">
         <v>113</v>
@@ -14784,7 +13985,7 @@
         <v>112</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G22" s="89">
         <v>42552</v>
@@ -14793,15 +13994,15 @@
         <v>42522</v>
       </c>
       <c r="I22" s="88" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="102" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D23" s="84" t="s">
         <v>115</v>
@@ -14810,24 +14011,24 @@
         <v>114</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G23" s="89">
-        <v>43070</v>
+        <v>42552</v>
       </c>
       <c r="H23" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I23" s="88" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="102" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D24" s="84" t="s">
         <v>117</v>
@@ -14836,24 +14037,24 @@
         <v>116</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G24" s="89">
-        <v>43070</v>
+        <v>42552</v>
       </c>
       <c r="H24" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I24" s="89" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="102" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C25" s="103" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D25" s="84" t="s">
         <v>119</v>
@@ -14862,24 +14063,24 @@
         <v>118</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G25" s="89">
         <v>42552</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I25" s="88" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="102" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D26" s="84" t="s">
         <v>121</v>
@@ -14888,24 +14089,24 @@
         <v>120</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G26" s="89">
         <v>42552</v>
       </c>
       <c r="H26" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I26" s="88" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="102" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D27" s="84" t="s">
         <v>123</v>
@@ -14914,7 +14115,7 @@
         <v>122</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G27" s="89">
         <v>42552</v>
@@ -14923,15 +14124,15 @@
         <v>42522</v>
       </c>
       <c r="I27" s="89" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="98" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" s="103" t="s">
         <v>384</v>
-      </c>
-      <c r="C28" s="103" t="s">
-        <v>374</v>
       </c>
       <c r="D28" s="84" t="s">
         <v>241</v>
@@ -14940,94 +14141,94 @@
         <v>242</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G28" s="89">
         <v>42552</v>
       </c>
       <c r="H28" s="88" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="I28" s="89" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="98" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C29" s="103" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E29" s="85" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F29" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G29" s="89">
         <v>42705</v>
       </c>
       <c r="H29" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I29" s="89" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="98" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D30" s="84" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G30" s="89">
         <v>42705</v>
       </c>
       <c r="H30" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I30" s="89" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="98" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="F31" s="85" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G31" s="89">
         <v>42856</v>
       </c>
       <c r="H31" s="88" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I31" s="89" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -15091,7 +14292,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -15102,15 +14303,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -15126,15 +14327,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15163,7 +14364,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>5</v>
@@ -15186,7 +14387,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -15203,7 +14404,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -15220,7 +14421,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -15228,13 +14429,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -15245,13 +14446,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -15262,16 +14463,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -15279,13 +14480,13 @@
         <v>54</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>53</v>
@@ -15296,50 +14497,50 @@
         <v>56</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E21" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>431</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -15393,10 +14594,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -15417,10 +14618,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15517,7 +14718,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>214</v>
@@ -15534,7 +14735,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>214</v>
@@ -15551,7 +14752,7 @@
         <v>216</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>217</v>
@@ -15568,7 +14769,7 @@
         <v>218</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>219</v>
@@ -15585,7 +14786,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>221</v>
@@ -15596,13 +14797,13 @@
     </row>
     <row r="20" spans="2:6" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>224</v>
@@ -15613,13 +14814,13 @@
     </row>
     <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>226</v>
@@ -15630,13 +14831,13 @@
     </row>
     <row r="22" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>228</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>229</v>
@@ -15653,7 +14854,7 @@
         <v>231</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>232</v>
@@ -15664,13 +14865,13 @@
     </row>
     <row r="24" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>234</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E24" s="34" t="s">
         <v>235</v>
@@ -15731,10 +14932,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -15755,10 +14956,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -15827,7 +15028,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -15844,7 +15045,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -15886,7 +15087,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>99</v>
@@ -15895,7 +15096,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -15932,7 +15133,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -15943,15 +15144,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="104" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -15972,10 +15173,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="105" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -16042,7 +15243,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16059,7 +15260,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16070,10 +15271,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -16087,10 +15288,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -16101,16 +15302,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16118,14 +15319,14 @@
         <v>54</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16133,14 +15334,14 @@
         <v>56</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16151,10 +15352,10 @@
         <v>69</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F20" s="35"/>
     </row>
@@ -16190,7 +15391,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -16201,15 +15402,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="104" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16230,10 +15431,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -16300,7 +15501,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16317,7 +15518,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16325,13 +15526,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>215</v>
@@ -16342,13 +15543,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>215</v>
@@ -16359,16 +15560,16 @@
         <v>68</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E17" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16376,16 +15577,16 @@
         <v>51</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16393,16 +15594,16 @@
         <v>54</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -16437,7 +15638,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -16448,15 +15649,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="104" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16472,15 +15673,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -16509,7 +15710,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>5</v>
@@ -16549,7 +15750,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16566,7 +15767,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16574,13 +15775,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>215</v>
@@ -16591,13 +15792,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>215</v>
@@ -16608,7 +15809,7 @@
         <v>68</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>11</v>
@@ -16617,7 +15818,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16625,16 +15826,16 @@
         <v>51</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16642,16 +15843,16 @@
         <v>54</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16659,33 +15860,33 @@
         <v>56</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="67" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -16723,7 +15924,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -16734,15 +15935,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="104" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16758,15 +15959,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -16795,7 +15996,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>5</v>
@@ -16835,7 +16036,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -16852,7 +16053,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -16860,13 +16061,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>215</v>
@@ -16877,13 +16078,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>215</v>
@@ -16894,7 +16095,7 @@
         <v>68</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D17" s="65" t="s">
         <v>11</v>
@@ -16911,16 +16112,16 @@
         <v>51</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="187.2" x14ac:dyDescent="0.25">
@@ -16928,16 +16129,16 @@
         <v>54</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16945,16 +16146,16 @@
         <v>56</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -17007,10 +16208,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -17031,10 +16232,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -17209,7 +16410,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17241,10 +16442,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -17252,7 +16453,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="50">
-        <v>43070</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -17265,10 +16466,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="105" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -17341,7 +16542,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -17358,7 +16559,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -17499,10 +16700,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -17523,10 +16724,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -17654,7 +16855,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>140</v>
@@ -17663,7 +16864,7 @@
         <v>144</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -17671,7 +16872,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>140</v>
@@ -17680,7 +16881,7 @@
         <v>145</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -17733,10 +16934,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -17757,10 +16958,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="105" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -17897,7 +17098,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -17906,7 +17107,7 @@
     </row>
     <row r="19" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="71" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
@@ -18264,10 +17465,10 @@
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -18288,10 +17489,10 @@
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -18500,10 +17701,10 @@
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -18524,10 +17725,10 @@
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18596,7 +17797,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -18613,7 +17814,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="150" x14ac:dyDescent="0.25">
@@ -18675,10 +17876,10 @@
         <v>69</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>163</v>
@@ -18701,8 +17902,8 @@
   </sheetPr>
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18734,10 +17935,10 @@
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -18745,7 +17946,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="50">
-        <v>43070</v>
+        <v>42705</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -18753,15 +17954,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18889,11 +18090,11 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -18902,16 +18103,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>164</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -18936,13 +18137,13 @@
         <v>68</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>60</v>
@@ -18965,8 +18166,8 @@
   </sheetPr>
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18998,10 +18199,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -19009,7 +18210,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="50">
-        <v>43070</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -19022,10 +18223,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -19232,10 +18433,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -19256,10 +18457,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -19328,7 +18529,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -19345,7 +18546,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -19407,7 +18608,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>182</v>
@@ -19466,10 +18667,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -19490,10 +18691,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -19655,16 +18856,16 @@
         <v>56</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>183</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -19675,7 +18876,7 @@
         <v>193</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>194</v>
@@ -19734,10 +18935,10 @@
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -19758,10 +18959,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -19902,7 +19103,7 @@
         <v>201</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -19939,8 +19140,8 @@
   </sheetPr>
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19974,10 +19175,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -19998,10 +19199,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -20029,8 +19230,8 @@
       <c r="C11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>514</v>
+      <c r="D11" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>5</v>
@@ -20053,10 +19254,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>209</v>
       </c>
@@ -20070,10 +19271,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="360" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="62" t="s">
         <v>211</v>
       </c>
@@ -20081,78 +19282,78 @@
         <v>17</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>514</v>
+        <v>328</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>515</v>
+        <v>245</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>519</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>520</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>513</v>
+        <v>328</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>516</v>
+        <v>246</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>513</v>
+        <v>328</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>516</v>
+        <v>248</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="33" t="s">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>513</v>
+        <v>328</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>517</v>
+        <v>248</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>233</v>
@@ -20190,7 +19391,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -20201,15 +19402,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -20230,10 +19431,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -20283,7 +19484,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -20300,7 +19501,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -20317,7 +19518,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -20328,10 +19529,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -20345,10 +19546,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -20359,16 +19560,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -20403,7 +19604,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -20414,15 +19615,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -20443,10 +19644,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -20496,7 +19697,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -20513,7 +19714,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -20530,7 +19731,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -20541,10 +19742,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -20558,10 +19759,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -20572,13 +19773,13 @@
         <v>51</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F17" s="58" t="s">
         <v>53</v>
@@ -20589,16 +19790,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20606,16 +19807,16 @@
         <v>56</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -20671,10 +19872,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -20695,10 +19896,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="107" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -20784,7 +19985,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -20795,10 +19996,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>215</v>
@@ -20812,10 +20013,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>215</v>
@@ -20829,10 +20030,10 @@
         <v>52</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>53</v>
@@ -20846,10 +20047,10 @@
         <v>55</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>53</v>
@@ -20863,10 +20064,10 @@
         <v>57</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>58</v>
@@ -20880,10 +20081,10 @@
         <v>59</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>60</v>
@@ -20891,16 +20092,16 @@
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>60</v>
@@ -20908,7 +20109,7 @@
     </row>
     <row r="23" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="73"/>
@@ -21220,7 +20421,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -21231,15 +20432,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E4" s="111"/>
       <c r="F4" s="111"/>
@@ -21284,10 +20485,10 @@
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -21316,7 +20517,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>5</v>
@@ -21339,7 +20540,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
@@ -21356,7 +20557,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
@@ -21373,7 +20574,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="57.6" x14ac:dyDescent="0.25">
@@ -21384,10 +20585,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -21401,10 +20602,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -21415,16 +20616,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -21432,16 +20633,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="57.6" x14ac:dyDescent="0.25">
@@ -21449,33 +20650,33 @@
         <v>56</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="118" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C20" s="119" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E20" s="120" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -21483,12 +20684,12 @@
     </row>
     <row r="22" spans="2:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="F22" s="122" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -21543,10 +20744,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -21567,10 +20768,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="105" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -21639,7 +20840,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -21656,7 +20857,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -21670,7 +20871,7 @@
         <v>62</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>215</v>
@@ -21704,10 +20905,10 @@
         <v>62</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -21724,7 +20925,7 @@
         <v>67</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -21732,16 +20933,16 @@
         <v>56</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21752,10 +20953,10 @@
         <v>69</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F20" s="52" t="s">
         <v>60</v>
@@ -21763,7 +20964,7 @@
     </row>
     <row r="23" spans="2:6" s="72" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="71" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
@@ -22078,7 +21279,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -22089,15 +21290,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -22118,10 +21319,10 @@
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -22150,7 +21351,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E10" s="91" t="s">
         <v>5</v>
@@ -22167,13 +21368,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -22184,13 +21385,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -22201,13 +21402,13 @@
         <v>17</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -22218,10 +21419,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>215</v>
@@ -22235,10 +21436,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>215</v>
@@ -22249,16 +21450,16 @@
         <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -22266,16 +21467,16 @@
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" s="63" t="s">
         <v>396</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>386</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -22283,13 +21484,13 @@
         <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="F18" s="64" t="s">
         <v>60</v>
@@ -22297,16 +21498,16 @@
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F19" s="52" t="s">
         <v>60</v>
@@ -22318,7 +21519,7 @@
     </row>
     <row r="21" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="71" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="75"/>
@@ -22676,10 +21877,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -22700,10 +21901,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="107" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -22869,28 +22070,28 @@
         <v>56</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F19" s="58"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="31" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F20" s="58"/>
     </row>
@@ -22961,10 +22162,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -22985,10 +22186,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -23212,10 +22413,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -23236,10 +22437,10 @@
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -23447,7 +22648,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>34</v>
@@ -23458,15 +22659,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -23482,15 +22683,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -23519,7 +22720,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>5</v>
@@ -23542,7 +22743,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
@@ -23559,7 +22760,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -23576,7 +22777,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -23584,13 +22785,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>215</v>
@@ -23601,13 +22802,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>215</v>
@@ -23618,16 +22819,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -23635,13 +22836,13 @@
         <v>54</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>53</v>
@@ -23652,50 +22853,50 @@
         <v>56</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>414</v>
-      </c>
       <c r="E19" s="25" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="31" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E21" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>431</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>421</v>
       </c>
     </row>
   </sheetData>
